--- a/Data/EC/NIT-9017486808.xlsx
+++ b/Data/EC/NIT-9017486808.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D985B166-7D9D-4961-B619-0F350237EF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B41474D-0101-4EAD-9D2F-D2EC5099BC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F829EF4B-FF2E-4DED-ABF6-E507B57E9358}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{895EFDF6-3148-4C01-9D24-E318BB33240C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>MARTHA LIGIA RODRIGUEZ MORENO</t>
   </si>
   <si>
-    <t>2506</t>
+    <t>2507</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -434,7 +434,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6728EA7F-57A4-8154-F220-C3B3D4B53F24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31B3034-2957-ADF6-DCAB-1CB382621E29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,7 +785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504EDD13-7186-4B65-9C90-E90E1F631D33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B7D087-F5CF-49C9-AF0D-30A38356B40B}">
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
